--- a/src/evaluation/data/processed/nearest_hospitals_to_sample_points.xlsx
+++ b/src/evaluation/data/processed/nearest_hospitals_to_sample_points.xlsx
@@ -500,13 +500,13 @@
         <v>6.923982130000041</v>
       </c>
       <c r="D3" t="n">
-        <v>49.276946</v>
+        <v>49.26812930661734</v>
       </c>
       <c r="E3" t="n">
-        <v>6.870121</v>
+        <v>6.929470619593767</v>
       </c>
       <c r="F3" t="n">
-        <v>4.149</v>
+        <v>2.377</v>
       </c>
     </row>
     <row r="4">
@@ -588,13 +588,13 @@
         <v>6.457994543833375</v>
       </c>
       <c r="D7" t="n">
-        <v>49.51812201000738</v>
+        <v>49.495769</v>
       </c>
       <c r="E7" t="n">
-        <v>6.446744142481315</v>
+        <v>6.596771</v>
       </c>
       <c r="F7" t="n">
-        <v>2.931</v>
+        <v>10.059</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>6.760094405333386</v>
       </c>
       <c r="D10" t="n">
-        <v>49.47310911352534</v>
+        <v>49.457186</v>
       </c>
       <c r="E10" t="n">
-        <v>6.784165134154136</v>
+        <v>6.631578</v>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>10.122</v>
       </c>
     </row>
     <row r="11">
@@ -676,13 +676,13 @@
         <v>6.860794359166722</v>
       </c>
       <c r="D11" t="n">
-        <v>49.60210042480619</v>
+        <v>49.537868</v>
       </c>
       <c r="E11" t="n">
-        <v>6.884531786009908</v>
+        <v>6.88934</v>
       </c>
       <c r="F11" t="n">
-        <v>3.642</v>
+        <v>4.441</v>
       </c>
     </row>
     <row r="12">
@@ -698,13 +698,13 @@
         <v>6.980411860000051</v>
       </c>
       <c r="D12" t="n">
-        <v>49.35501803983004</v>
+        <v>49.33767769818895</v>
       </c>
       <c r="E12" t="n">
-        <v>7.015709291683912</v>
+        <v>7.005279273288449</v>
       </c>
       <c r="F12" t="n">
-        <v>2.751</v>
+        <v>3.439</v>
       </c>
     </row>
     <row r="13">
@@ -720,13 +720,13 @@
         <v>7.04284978800005</v>
       </c>
       <c r="D13" t="n">
-        <v>49.35501803983004</v>
+        <v>49.33767769818895</v>
       </c>
       <c r="E13" t="n">
-        <v>7.015709291683912</v>
+        <v>7.005279273288449</v>
       </c>
       <c r="F13" t="n">
-        <v>4.317</v>
+        <v>6.382</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         <v>7.105287716000049</v>
       </c>
       <c r="D14" t="n">
-        <v>49.453979</v>
+        <v>49.40973615864516</v>
       </c>
       <c r="E14" t="n">
-        <v>7.178492</v>
+        <v>7.172516962777409</v>
       </c>
       <c r="F14" t="n">
-        <v>6.847</v>
+        <v>4.915</v>
       </c>
     </row>
     <row r="15">
@@ -764,13 +764,13 @@
         <v>7.167725644000048</v>
       </c>
       <c r="D15" t="n">
-        <v>49.348293</v>
+        <v>49.40973615864516</v>
       </c>
       <c r="E15" t="n">
-        <v>7.185803</v>
+        <v>7.172516962777409</v>
       </c>
       <c r="F15" t="n">
-        <v>4.772</v>
+        <v>2.272</v>
       </c>
     </row>
     <row r="16">
@@ -786,13 +786,13 @@
         <v>7.230163572000047</v>
       </c>
       <c r="D16" t="n">
-        <v>49.454659</v>
+        <v>49.39718981222195</v>
       </c>
       <c r="E16" t="n">
-        <v>7.186793</v>
+        <v>7.213364346793378</v>
       </c>
       <c r="F16" t="n">
-        <v>5.408</v>
+        <v>2.336</v>
       </c>
     </row>
     <row r="17">
@@ -874,13 +874,13 @@
         <v>6.8387742226667</v>
       </c>
       <c r="D20" t="n">
-        <v>49.419092</v>
+        <v>49.35666769333056</v>
       </c>
       <c r="E20" t="n">
-        <v>6.88979</v>
+        <v>6.822620825380222</v>
       </c>
       <c r="F20" t="n">
-        <v>7.634</v>
+        <v>1.204</v>
       </c>
     </row>
     <row r="21">
@@ -896,13 +896,13 @@
         <v>6.914046861333361</v>
       </c>
       <c r="D21" t="n">
-        <v>49.419092</v>
+        <v>49.44208949482798</v>
       </c>
       <c r="E21" t="n">
-        <v>6.88979</v>
+        <v>6.904224529034402</v>
       </c>
       <c r="F21" t="n">
-        <v>4.279</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="22">
@@ -1006,13 +1006,13 @@
         <v>7.345492666666691</v>
       </c>
       <c r="D26" t="n">
-        <v>49.37248449372082</v>
+        <v>49.3762045599062</v>
       </c>
       <c r="E26" t="n">
-        <v>7.350777489274446</v>
+        <v>7.280034712412421</v>
       </c>
       <c r="F26" t="n">
-        <v>1.512</v>
+        <v>5.111</v>
       </c>
     </row>
     <row r="27">
@@ -1050,13 +1050,13 @@
         <v>7.030513554666736</v>
       </c>
       <c r="D28" t="n">
-        <v>49.51939194606232</v>
+        <v>49.537868</v>
       </c>
       <c r="E28" t="n">
-        <v>7.11468832097552</v>
+        <v>6.88934</v>
       </c>
       <c r="F28" t="n">
-        <v>6.122</v>
+        <v>10.326</v>
       </c>
     </row>
     <row r="29">
@@ -1072,13 +1072,13 @@
         <v>7.10004333200007</v>
       </c>
       <c r="D29" t="n">
-        <v>49.51939194606232</v>
+        <v>49.453979</v>
       </c>
       <c r="E29" t="n">
-        <v>7.11468832097552</v>
+        <v>7.178492</v>
       </c>
       <c r="F29" t="n">
-        <v>1.207</v>
+        <v>9.693</v>
       </c>
     </row>
     <row r="30">
@@ -1094,13 +1094,13 @@
         <v>7.169573109333403</v>
       </c>
       <c r="D30" t="n">
-        <v>49.51939194606232</v>
+        <v>49.454659</v>
       </c>
       <c r="E30" t="n">
-        <v>7.11468832097552</v>
+        <v>7.186793</v>
       </c>
       <c r="F30" t="n">
-        <v>4.016</v>
+        <v>7.876</v>
       </c>
     </row>
     <row r="31">
@@ -1116,13 +1116,13 @@
         <v>7.239102886666738</v>
       </c>
       <c r="D31" t="n">
-        <v>49.51939194606232</v>
+        <v>49.454659</v>
       </c>
       <c r="E31" t="n">
-        <v>7.11468832097552</v>
+        <v>7.186793</v>
       </c>
       <c r="F31" t="n">
-        <v>10.221</v>
+        <v>12.617</v>
       </c>
     </row>
   </sheetData>
